--- a/Xiomara/V2/plentas-backend-test/OldApi/OutputFiles2/Spacy - NotasCalculadas.xlsx
+++ b/Xiomara/V2/plentas-backend-test/OldApi/OutputFiles2/Spacy - NotasCalculadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,31 +648,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -681,25 +681,556 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
